--- a/lab1/report stuff/experiment2Data.xlsx
+++ b/lab1/report stuff/experiment2Data.xlsx
@@ -801,6 +801,9 @@
           <c:tx>
             <c:v>Theoretical</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>experiment2Data.csv!$A$2:$A$102</c:f>
@@ -1435,11 +1438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096624504"/>
-        <c:axId val="2096621336"/>
+        <c:axId val="-2078768216"/>
+        <c:axId val="-2094331368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096624504"/>
+        <c:axId val="-2078768216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,12 +1471,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096621336"/>
+        <c:crossAx val="-2094331368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096621336"/>
+        <c:axId val="-2094331368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096624504"/>
+        <c:crossAx val="-2078768216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
